--- a/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_xtw_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_xtw_template.xlsx
@@ -422,15 +422,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="6" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_xtw_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_xtw_template.xlsx
@@ -423,14 +423,14 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="25.625" style="1" customWidth="1"/>
-    <col min="6" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
+    <col min="3" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
